--- a/ig/ch-term/ch-vacd-vaccines-sct-targetdiseases-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-sct-targetdiseases-cm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-term/ConceptMap/ch-vacd-vaccines-sct-targetdiseases-cm</t>
+    <t>http://fhir.ch/ig/ch-vacd/ConceptMap/ch-vacd-vaccines-sct-targetdiseases-cm</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -496,6 +496,114 @@
   </si>
   <si>
     <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 recombinant spike protein antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1991000221106</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human papillomavirus 16 and 18 antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1209197008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human papillomavirus 6, 11, 16, 18, 31, 33, 45, 52 and 58 antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1981000221108</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup B antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>860805006</t>
+  </si>
+  <si>
+    <t>Encephalomyelitis caused by Neisseria meningitidis (disorder)</t>
+  </si>
+  <si>
+    <t>1119220001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 2, 3, 4, 5, 6B, 7F, 8, 9N, 9V, 10A, 11A, 12F, 14, 15B, 17F, 18C, 19A, 19F, 20, 22F, 23F, and 33F capsular polysaccharide antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1252708008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 3, 4, 5, 6A, 6B, 7F, 9V, 14, 18C, 19A, 19F, 22F, 23F, and 33F capsular polysaccharide conjugated antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>840563003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Dengue virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>38362002</t>
+  </si>
+  <si>
+    <t>Dengue (disorder)</t>
+  </si>
+  <si>
+    <t>836389008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Vaccinia virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>111852003</t>
+  </si>
+  <si>
+    <t>Vaccinia (disorder)</t>
+  </si>
+  <si>
+    <t>836401009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Neisseria meningitidis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836377006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836495005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836375003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Hepatitis A virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836421005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Ebolavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>37109004</t>
+  </si>
+  <si>
+    <t>Ebola virus disease (disorder)</t>
+  </si>
+  <si>
+    <t>51311000087100</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human orthopneumovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>55735004</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus infection (disorder)</t>
   </si>
 </sst>
 </file>
@@ -780,7 +888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,6 +1982,227 @@
         <v>130</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-term/ch-vacd-vaccines-sct-targetdiseases-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-sct-targetdiseases-cm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mappings from SnomedCT vaccine code to target disease according to the correcsponding valuesets</t>
+    <t>Mappings from SnomedCT VaccineCode to TargetDisease according to the correcsponding valuesets</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -474,18 +474,24 @@
     <t>Tuberculosis (disorder)</t>
   </si>
   <si>
+    <t>373437006</t>
+  </si>
+  <si>
+    <t>Infection caused by Mycobacterium bovis (disorder)</t>
+  </si>
+  <si>
+    <t>2001000221108</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human papillomavirus 6, 11, 16 and 18 antigens (medicinal product)</t>
+  </si>
+  <si>
     <t>240532009</t>
   </si>
   <si>
     <t>Human papillomavirus infection (disorder)</t>
   </si>
   <si>
-    <t>2001000221108</t>
-  </si>
-  <si>
-    <t>Vaccine product containing only Human papillomavirus 6, 11, 16 and 18 antigens (medicinal product)</t>
-  </si>
-  <si>
     <t>29061000087103</t>
   </si>
   <si>
@@ -570,6 +576,12 @@
     <t>Vaccine product containing Influenza virus antigen (medicinal product)</t>
   </si>
   <si>
+    <t>6142004</t>
+  </si>
+  <si>
+    <t>Influenza (disorder)</t>
+  </si>
+  <si>
     <t>836495005</t>
   </si>
   <si>
@@ -604,6 +616,1185 @@
   </si>
   <si>
     <t>Respiratory syncytial virus infection (disorder)</t>
+  </si>
+  <si>
+    <t>836402002</t>
+  </si>
+  <si>
+    <t>Vaccine product containing live attenuated Mycobacterium bovis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>37146000</t>
+  </si>
+  <si>
+    <t>Typhus vaccine</t>
+  </si>
+  <si>
+    <t>409568008</t>
+  </si>
+  <si>
+    <t>Pentavalent botulinum toxoid vaccine</t>
+  </si>
+  <si>
+    <t>56688005</t>
+  </si>
+  <si>
+    <t>Clostridial infection (disorder)</t>
+  </si>
+  <si>
+    <t>428601009</t>
+  </si>
+  <si>
+    <t>Paratyphoid vaccine</t>
+  </si>
+  <si>
+    <t>85904008</t>
+  </si>
+  <si>
+    <t>Paratyphoid fever (disorder)</t>
+  </si>
+  <si>
+    <t>774618008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only whole cell Bordetella pertussis and Clostridium tetani toxoid adsorbed and Corynebacterium diphtheriae toxoid antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>775641005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani toxoid adsorbed and Corynebacterium diphtheriae toxoid antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>777725002</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani toxoid antigen adsorbed (medicinal product)</t>
+  </si>
+  <si>
+    <t>836369007</t>
+  </si>
+  <si>
+    <t>Virus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>34014006</t>
+  </si>
+  <si>
+    <t>Viral disease</t>
+  </si>
+  <si>
+    <t>836374004</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836378001</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis virus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836379009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human papillomavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836380007</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Haemophilus influenzae type b antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836381006</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836382004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Measles morbillivirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836383009</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836384003</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>409498004</t>
+  </si>
+  <si>
+    <t>Anthrax (disorder)</t>
+  </si>
+  <si>
+    <t>836385002</t>
+  </si>
+  <si>
+    <t>Yellow fever virus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836387005</t>
+  </si>
+  <si>
+    <t>Rotavirus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836388000</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Rubella virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836390004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Salmonella enterica subspecies enterica serovar Typhi antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836393002</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836397001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Coxiella burnetii antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>721758001</t>
+  </si>
+  <si>
+    <t>Infection caused by Coxiella (disorder)</t>
+  </si>
+  <si>
+    <t>836398006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Streptococcus pneumoniae antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836400005</t>
+  </si>
+  <si>
+    <t>Adenovirus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>25225006</t>
+  </si>
+  <si>
+    <t>Disease caused by Adenovirus (disorder)</t>
+  </si>
+  <si>
+    <t>836403007</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>836498007</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Mumps orthorubulavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836500008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Haemophilus influenzae type b and Neisseria meningitidis serogroup C antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>840549009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Yersinia pestis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>83436008</t>
+  </si>
+  <si>
+    <t>Yersiniosis (disorder)</t>
+  </si>
+  <si>
+    <t>840551008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Francisella tularensis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>721734000</t>
+  </si>
+  <si>
+    <t>Infection caused by Francisella (disorder)</t>
+  </si>
+  <si>
+    <t>840564009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Leptospira antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>77377001</t>
+  </si>
+  <si>
+    <t>Leptospirosis (disorder)</t>
+  </si>
+  <si>
+    <t>840599008</t>
+  </si>
+  <si>
+    <t>Borrelia burgdorferi antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>15507005</t>
+  </si>
+  <si>
+    <t>Infection of central nervous system caused by Borrelia burgdorferi (disorder)</t>
+  </si>
+  <si>
+    <t>860722004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Junin virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>721778009</t>
+  </si>
+  <si>
+    <t>Infection caused by Junin virus (disorder)</t>
+  </si>
+  <si>
+    <t>860818003</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>863911006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Clostridium tetani antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>863950005</t>
+  </si>
+  <si>
+    <t>Bacteria and virus antigens-containing vaccine product</t>
+  </si>
+  <si>
+    <t>Viral disease (disorder)</t>
+  </si>
+  <si>
+    <t>87628006</t>
+  </si>
+  <si>
+    <t>Bacterial infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>865997008</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus antigen only adult vaccine product</t>
+  </si>
+  <si>
+    <t>871716003</t>
+  </si>
+  <si>
+    <t>Tularemia vaccine</t>
+  </si>
+  <si>
+    <t>19265001</t>
+  </si>
+  <si>
+    <t>Tularemia (disorder)</t>
+  </si>
+  <si>
+    <t>871718002</t>
+  </si>
+  <si>
+    <t>Plague vaccine</t>
+  </si>
+  <si>
+    <t>58750007</t>
+  </si>
+  <si>
+    <t>Plague (disorder)</t>
+  </si>
+  <si>
+    <t>871720004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Dengue virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>871721000</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Ebolavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>871722007</t>
+  </si>
+  <si>
+    <t>Adenovirus antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>871723002</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>871725009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Japanese encephalitis virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>871727001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Vaccinia virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>871729003</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>871730008</t>
+  </si>
+  <si>
+    <t>Low dose diphtheria vaccine</t>
+  </si>
+  <si>
+    <t>871732000</t>
+  </si>
+  <si>
+    <t>Rubella virus antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>871738001</t>
+  </si>
+  <si>
+    <t>Live attenuated mumps vaccine</t>
+  </si>
+  <si>
+    <t>871740006</t>
+  </si>
+  <si>
+    <t>Inactivated whole Human poliovirus antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>871750007</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus antigen only paediatric vaccine product</t>
+  </si>
+  <si>
+    <t>871755002</t>
+  </si>
+  <si>
+    <t>Typhoid Vi capsular polysaccharide vaccine</t>
+  </si>
+  <si>
+    <t>871758000</t>
+  </si>
+  <si>
+    <t>Pertussis vaccine</t>
+  </si>
+  <si>
+    <t>871759008</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis only vaccine product</t>
+  </si>
+  <si>
+    <t>871766009</t>
+  </si>
+  <si>
+    <t>Live attenuated Measles morbillivirus antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>871768005</t>
+  </si>
+  <si>
+    <t>Influenza virus antigen only vaccine product in nasal dose form</t>
+  </si>
+  <si>
+    <t>871772009</t>
+  </si>
+  <si>
+    <t>Influenza H1N1 vaccine</t>
+  </si>
+  <si>
+    <t>442696006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H1N1 (disorder)</t>
+  </si>
+  <si>
+    <t>871804001</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus and Salmonella enterica subspecies enterica serovar Typhi antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871806004</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae type b and Hepatitis B virus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871816007</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>871817003</t>
+  </si>
+  <si>
+    <t>Measles morbillivirus and Rubella virus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871825001</t>
+  </si>
+  <si>
+    <t>Inactivated Japanese encephalitis virus adsorbed vaccine</t>
+  </si>
+  <si>
+    <t>871827009</t>
+  </si>
+  <si>
+    <t>Low dose diphtheria and tetanus vaccine</t>
+  </si>
+  <si>
+    <t>871830002</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae toxoid antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>871838009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani and low dose Corynebacterium diphtheriae and inactivated Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>871839001</t>
+  </si>
+  <si>
+    <t>Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871871008</t>
+  </si>
+  <si>
+    <t>Meningitis A and C vaccine</t>
+  </si>
+  <si>
+    <t>7180009</t>
+  </si>
+  <si>
+    <t>Meningitis (disorder)</t>
+  </si>
+  <si>
+    <t>871876003</t>
+  </si>
+  <si>
+    <t>Diphtheria and acellular pertussis and tetanus vaccine</t>
+  </si>
+  <si>
+    <t>871883005</t>
+  </si>
+  <si>
+    <t>Pediatric vaccine product containing only acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>871886002</t>
+  </si>
+  <si>
+    <t>Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Hepatitis B virus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871888001</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and inactivated Human poliovirus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871889009</t>
+  </si>
+  <si>
+    <t>Diphtheria and hepatitis B and inactivated poliomyelitis and acellular pertussis vaccine</t>
+  </si>
+  <si>
+    <t>871890000</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>871891001</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Hepatitis B and inactivated whole Human poliovirus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871893003</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and inactivated Human poliovirus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871894009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only acellular Bordetella pertussis and Clostridium tetani and low dose Corynebacterium diphtheriae and inactivated whole Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>871897002</t>
+  </si>
+  <si>
+    <t>Rocky Mountain spotted fever vaccine</t>
+  </si>
+  <si>
+    <t>186772009</t>
+  </si>
+  <si>
+    <t>Rocky Mountain spotted fever (disorder)</t>
+  </si>
+  <si>
+    <t>871911001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Borrelia burgdorferi antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>871916006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup A, C, W135 and Y capsular oligosaccharide conjugated antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>871918007</t>
+  </si>
+  <si>
+    <t>Rickettsia antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>37246009</t>
+  </si>
+  <si>
+    <t>Disease caused by rickettsiae (disorder)</t>
+  </si>
+  <si>
+    <t>871921009</t>
+  </si>
+  <si>
+    <t>Staphylococcus toxoid vaccine (medicinal product)</t>
+  </si>
+  <si>
+    <t>56038003</t>
+  </si>
+  <si>
+    <t>Staphylococcal infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>871925000</t>
+  </si>
+  <si>
+    <t>Hepatitis B surface antigen vaccine</t>
+  </si>
+  <si>
+    <t>871928003</t>
+  </si>
+  <si>
+    <t>Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Human poliovirus and Measles morbillivirus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>871929006</t>
+  </si>
+  <si>
+    <t>Clostridium tetani and Corynebacterium diphtheriae and Hepatitis B virus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>1003499009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza A virus subtype H5N1 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>772828001</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H5N1 (disorder)</t>
+  </si>
+  <si>
+    <t>1010308001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Hepatitis A virus HM-175 strain antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1010310004</t>
+  </si>
+  <si>
+    <t>Live attenuated Human alphaherpesvirus 3 Oka-Merck strain only vaccine product</t>
+  </si>
+  <si>
+    <t>1010313002</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1010318006</t>
+  </si>
+  <si>
+    <t>Inactivated whole Hepatitis A GBM strain vaccine</t>
+  </si>
+  <si>
+    <t>1010322001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Human alphaherpesvirus 3 Oka strain antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1010689004</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae type b capsular polysaccharide polyribosylribitol phosphate conjugated to Clostridium tetani toxoid vaccine</t>
+  </si>
+  <si>
+    <t>1052330009</t>
+  </si>
+  <si>
+    <t>Pneumococcal 10-valent conjugate vaccine</t>
+  </si>
+  <si>
+    <t>1119279002</t>
+  </si>
+  <si>
+    <t>Inactivated whole Influenza A virus subtype H5N1 antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>1119305005</t>
+  </si>
+  <si>
+    <t>2019 novel coronavirus antigen vaccine</t>
+  </si>
+  <si>
+    <t>1119351006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Haemophilus influenzae type b and Neisseria meningitidis serogroup C and Y antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1156879008</t>
+  </si>
+  <si>
+    <t>Diphtheria and hepatitis B and pertussis and tetanus vaccine</t>
+  </si>
+  <si>
+    <t>1157024006</t>
+  </si>
+  <si>
+    <t>Inactivated whole SARS-CoV-2 antigen vaccine</t>
+  </si>
+  <si>
+    <t>1157356006</t>
+  </si>
+  <si>
+    <t>Influenza A virus A/California/7/2009 (H1N1)-like virus strain split virion hemagglutinin antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>442438000</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus (disorder)</t>
+  </si>
+  <si>
+    <t>1162629006</t>
+  </si>
+  <si>
+    <t>Influenza A virus A/Indonesia/05/2005 (H5N1)-like virus strain split virion hemagglutinin antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>1162634005</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis, Clostridium tetani toxoid, Corynebacterium diphtheriae toxoid, Haemophilus influenzae type b conjugated, Hepatitis B virus and inactivated Human poliovirus antigens only pediatric vaccine product</t>
+  </si>
+  <si>
+    <t>1162637003</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Hepatitis B virus and inactivated Human poliovirus antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>1187593009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 deoxyribonucleic acid plasmid encoding spike protein (medicinal product)</t>
+  </si>
+  <si>
+    <t>1252690003</t>
+  </si>
+  <si>
+    <t>Meningococcus serogroup A vaccine</t>
+  </si>
+  <si>
+    <t>1252703004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Measles morbillivirus and Mumps orthorubulavirus (medicinal product)</t>
+  </si>
+  <si>
+    <t>1252709000</t>
+  </si>
+  <si>
+    <t>Pneumococcal 1, 3, 4, 5, 6A, 6B, 7F, 8, 9V, 10A, 11A, 12F, 14, 15B, 18C, 19A, 19F, 22F, 23F, 33F conjugate vaccine</t>
+  </si>
+  <si>
+    <t>1254676002</t>
+  </si>
+  <si>
+    <t>Vaccine product containing live attenuated virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1269346004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Vaccinia virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1287338003</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus antigen only paediatric vaccine product</t>
+  </si>
+  <si>
+    <t>1287595003</t>
+  </si>
+  <si>
+    <t>Pediatric vaccine product containing only severe acute respiratory syndrome coronavirus 2 encoding B lineage spike protein and BA.4/BA.5 lineage spike protein messenger ribonucleic acid (medicinal product)</t>
+  </si>
+  <si>
+    <t>1287596002</t>
+  </si>
+  <si>
+    <t>Adult vaccine product containing only severe acute respiratory syndrome coronavirus 2 encoding B lineage spike protein and BA.4/BA.5 lineage spike protein messenger ribonucleic acid</t>
+  </si>
+  <si>
+    <t>1287964002</t>
+  </si>
+  <si>
+    <t>B lineage SARS-CoV-2 monovalent mRNA only vaccine product</t>
+  </si>
+  <si>
+    <t>1290123005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing protozoa antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>95896000</t>
+  </si>
+  <si>
+    <t>Protozoan infection (disorder)</t>
+  </si>
+  <si>
+    <t>1290624003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Variola virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>67924001</t>
+  </si>
+  <si>
+    <t>Smallpox (disorder)</t>
+  </si>
+  <si>
+    <t>1290625002</t>
+  </si>
+  <si>
+    <t>Variola virus antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>1290764006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human-bovine reassortant Rotavirus G1, G2, G3, G4, and P1A[8] antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1293025000</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only modified Vaccinia virus Ankara antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1296676008</t>
+  </si>
+  <si>
+    <t>Hepatitis B recombinant adsorbed surface antigen vaccine</t>
+  </si>
+  <si>
+    <t>1296677004</t>
+  </si>
+  <si>
+    <t>Hepatitis B high dose recombinant surface antigen vaccine</t>
+  </si>
+  <si>
+    <t>1296678009</t>
+  </si>
+  <si>
+    <t>3 antigen Hepatitis B recombinant surface only vaccine product</t>
+  </si>
+  <si>
+    <t>1296753004</t>
+  </si>
+  <si>
+    <t>Paediatric vaccine inactivated whole Hepatitis A and Hepatitis B surface antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>1296864005</t>
+  </si>
+  <si>
+    <t>Paediatric Hepatitis B recombinant adsorbed surface antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>1297215000</t>
+  </si>
+  <si>
+    <t>Live attenuated rubella vaccine</t>
+  </si>
+  <si>
+    <t>1297217008</t>
+  </si>
+  <si>
+    <t>Pediatric vaccine product containing only acellular Bordetella pertussis and Clostridium tetani toxoid and Corynebacterium diphtheriae toxoid antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>91000221102</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Hepatitis A virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>121000221105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Hepatitis A and Hepatitis B surface antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>601000221108</t>
+  </si>
+  <si>
+    <t>Bordetella pertussis antigen-containing vaccine product</t>
+  </si>
+  <si>
+    <t>911000221103</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human papillomavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>921000221108</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>951000221102</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup C capsular polysaccharide conjugated antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>971000221109</t>
+  </si>
+  <si>
+    <t>Live attenuated Salmonella enterica subspecies enterica serovar Typhi antigen only vaccine product in oral dose form</t>
+  </si>
+  <si>
+    <t>1001000221103</t>
+  </si>
+  <si>
+    <t>Inactivated cholera vaccine in oral dose form</t>
+  </si>
+  <si>
+    <t>1011000221100</t>
+  </si>
+  <si>
+    <t>Live attenuated Vibrio cholerae antigen only vaccine product in oral dose form</t>
+  </si>
+  <si>
+    <t>1031000221108</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human poliovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1051000221104</t>
+  </si>
+  <si>
+    <t>Live attenuated poliovirus serotypes 1 and 3 vaccine in oral dose form</t>
+  </si>
+  <si>
+    <t>1061000221102</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis capsular polysaccharide antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1081000221109</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Rotavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1101000221104</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Clostridium tetani toxoid antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1111000221101</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Junin virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1121000221106</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Yellow fever virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1131000221109</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Rabies lyssavirus antigen</t>
+  </si>
+  <si>
+    <t>1801000221105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae capsular polysaccharide antigen conjugated (medicinal product)</t>
+  </si>
+  <si>
+    <t>1971000221105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup A, C, W135 and Y capsular polysaccharide conjugated antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>2021000221101</t>
+  </si>
+  <si>
+    <t>Tetanus toxoid vaccine</t>
+  </si>
+  <si>
+    <t>2031000221103</t>
+  </si>
+  <si>
+    <t>Adult vaccine product containing only Clostridium tetani and Corynebacterium diphtheriae toxoids (medicinal product)</t>
+  </si>
+  <si>
+    <t>2041000221105</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae type b capsular polysaccharide conjugated vaccine</t>
+  </si>
+  <si>
+    <t>2051000221107</t>
+  </si>
+  <si>
+    <t>Adult vaccine product containing only acellular Bordetella pertussis and Clostridium tetani toxoid and Corynebacterium diphtheriae toxoid antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>2061000221109</t>
+  </si>
+  <si>
+    <t>Pediatric vaccine product containing only whole cell Bordetella pertussis and Clostridium tetani toxoid and Corynebacterium diphtheriae toxoid (medicinal product)</t>
+  </si>
+  <si>
+    <t>2071000221100</t>
+  </si>
+  <si>
+    <t>Whole cell Bordetella pertussis and Corynebacterium diphtheriae toxoid and Clostridium tetani toxoid and Haemophilus influenzae type b capsular polysaccharide conjugated antigens only pediatric vaccine</t>
+  </si>
+  <si>
+    <t>2081000221102</t>
+  </si>
+  <si>
+    <t>Diphtheria toxoid, Haemophilus influenzae type b conjugate, hepatitis B surface antigen, acellular pertussis and tetanus toxoid pediatric vaccine</t>
+  </si>
+  <si>
+    <t>2091000221104</t>
+  </si>
+  <si>
+    <t>Acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Human poliovirus antigens only paediatric vaccine product</t>
+  </si>
+  <si>
+    <t>2101000221107</t>
+  </si>
+  <si>
+    <t>Diphtheria and acellular pertussis and Haemophilus influenzae type b and hepatitis B and poliomyelitis and tetanus pediatric vaccine</t>
+  </si>
+  <si>
+    <t>2171000221104</t>
+  </si>
+  <si>
+    <t>Typhoid polysaccharide vaccine in parenteral dose form</t>
+  </si>
+  <si>
+    <t>2181000221101</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae antigen only vaccine product in oral dose form</t>
+  </si>
+  <si>
+    <t>2191000221103</t>
+  </si>
+  <si>
+    <t>Inactivated rabies vaccine grown in cellular line</t>
+  </si>
+  <si>
+    <t>2201000221100</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Rabies lyssavirus antigen grown in brain tissue (medicinal product)</t>
+  </si>
+  <si>
+    <t>2211000221102</t>
+  </si>
+  <si>
+    <t>Influenza A virus subtypes H1N1 and H3N2 and influenza B virus Victoria lineage antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>772810003</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H3N2 (disorder)</t>
+  </si>
+  <si>
+    <t>24662006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza B virus (disorder)</t>
+  </si>
+  <si>
+    <t>2221000221107</t>
+  </si>
+  <si>
+    <t>Live attenuated Human alphaherpesvirus 3 only vaccine product</t>
+  </si>
+  <si>
+    <t>2231000221105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Measles morbillivirus and Rubella virus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>2241000221103</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Measles morbillivirus and Mumps orthorubulavirus and Rubella virus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>2251000221101</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Measles morbillivirus and Mumps orthorubulavirus and Rubella virus and Human alphaherpesvirus 3 antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>2261000221104</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only influenza A virus subtypes H1N1 and H3N2 and influenza B virus Victoria and Yamagata lineage antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>28531000087107</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine</t>
+  </si>
+  <si>
+    <t>30141000087107</t>
+  </si>
+  <si>
+    <t>COVID-19 virus-like particle antigen vaccine</t>
+  </si>
+  <si>
+    <t>45861000087106</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Plasmodium falciparum antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>62676009</t>
+  </si>
+  <si>
+    <t>Falciparum malaria (disorder)</t>
+  </si>
+  <si>
+    <t>45891000087103</t>
+  </si>
+  <si>
+    <t>Live attenuated Zaire ebolavirus antigen only vaccine product</t>
+  </si>
+  <si>
+    <t>51451000087105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 3, 4, 5, 6A, 6B, 7F, 9V, 14, 18C, 19A, 19F, and 23F capsular polysaccharide antigens conjugated (medicinal product)</t>
+  </si>
+  <si>
+    <t>51591000087104</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Enterovirus A71 antigen</t>
+  </si>
+  <si>
+    <t>713456006</t>
+  </si>
+  <si>
+    <t>Infection caused by Human enterovirus 71 (disorder)</t>
+  </si>
+  <si>
+    <t>318341000221109</t>
+  </si>
+  <si>
+    <t>Diphtheria toxoid and Haemophilus influenzae type b conjugate and acellular pertussis and tetanus toxoid pediatric vaccine</t>
+  </si>
+  <si>
+    <t>318351000221106</t>
+  </si>
+  <si>
+    <t>Pediatric vaccine product containing only acellular Bordetella pertussis and Clostridium tetani toxoid and Corynebacterium diphtheriae toxoid and inactivated whole Human Poliovirus serotype 1, 2 and 3 antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>319941000221104</t>
+  </si>
+  <si>
+    <t>Live attenuated Mycobacterium bovis antigen only vaccine product in parenteral dose form</t>
   </si>
 </sst>
 </file>
@@ -888,7 +2079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1942,18 +3133,18 @@
         <v>38</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>38</v>
@@ -1967,10 +3158,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>38</v>
@@ -1984,61 +3175,61 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>38</v>
@@ -2052,10 +3243,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>38</v>
@@ -2069,78 +3260,78 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>38</v>
@@ -2154,10 +3345,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>38</v>
@@ -2171,36 +3362,4694 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D77" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D123" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E123" t="s" s="2">
         <v>196</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E132" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E134" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E135" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E136" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="E139" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E140" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E143" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E146" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E151" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E153" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D154" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E156" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D157" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E158" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="E159" t="s" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E160" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E161" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D162" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E162" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E163" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E164" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E165" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E166" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E167" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E168" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E169" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E170" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E172" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E173" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E174" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E175" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E177" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D178" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D179" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E179" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E180" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E181" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E182" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D184" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E184" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E185" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E188" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E189" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E190" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E191" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E192" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E193" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E194" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E195" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E196" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E197" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="E198" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D199" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="E199" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E200" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="E201" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="E202" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E203" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D204" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E204" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D205" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E205" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D206" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E206" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E207" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D208" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E208" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D209" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E209" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D210" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E210" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D211" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="E211" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D212" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E212" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D213" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E213" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D214" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="E214" t="s" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D215" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E215" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E216" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E217" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E218" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D219" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E219" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D220" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="E220" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D221" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E221" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E222" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D223" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E223" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D224" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E224" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D225" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E225" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E226" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D227" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E227" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D228" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E228" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D229" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E229" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D230" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E230" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E231" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D232" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E232" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D233" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E233" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E234" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E235" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D236" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E236" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D237" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E237" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E238" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D239" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E239" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D240" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E240" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E241" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E242" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D243" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E243" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E244" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D245" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E245" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D246" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E246" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D247" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="E247" t="s" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C248" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D248" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="E248" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D249" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E249" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D250" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E250" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D251" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E251" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C252" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E252" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C253" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D253" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="E253" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C254" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D254" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="E254" t="s" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C255" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D255" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="E255" t="s" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C256" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D256" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E256" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C257" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D257" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="E257" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D258" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E258" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C259" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D259" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E259" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C260" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D260" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E260" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D261" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E261" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C262" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D262" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E262" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C263" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D263" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E263" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C264" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E264" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C265" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D265" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E265" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C266" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D266" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E266" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C267" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D267" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E267" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C268" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D268" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E268" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C269" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D269" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E269" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C270" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D270" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E270" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D271" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E271" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C272" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E272" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C273" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E273" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B274" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C274" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E274" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E275" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C276" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D276" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E276" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C277" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E277" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C278" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E278" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E279" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E280" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D281" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E281" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E282" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D283" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="E283" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D284" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E284" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D285" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E285" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D286" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E286" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D287" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E287" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D288" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E288" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D289" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E289" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D290" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E290" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E291" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D292" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E292" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D293" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E293" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D294" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E294" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D295" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E295" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D296" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E296" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D297" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E297" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B298" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D298" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E298" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B299" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D299" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E299" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C300" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D300" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E300" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E301" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B302" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C302" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E302" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D303" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E303" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C304" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D304" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E304" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B305" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C305" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D305" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E305" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B306" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C306" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D306" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E306" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B307" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C307" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D307" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E307" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B308" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C308" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D308" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E308" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B309" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D309" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E309" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B310" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D310" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E310" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D311" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E311" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D312" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E312" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C313" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D313" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E313" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D314" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E314" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D315" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E315" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C316" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D316" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E316" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C317" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D317" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E317" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C318" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D318" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E318" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D319" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E319" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C320" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D320" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="E320" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C321" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D321" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="E321" t="s" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D322" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="E322" t="s" s="2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D323" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E323" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D324" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E324" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D325" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E325" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C326" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D326" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E326" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C327" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E327" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C328" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D328" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E328" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C329" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D329" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E329" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C330" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D330" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E330" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C331" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D331" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E331" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C332" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D332" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E332" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C333" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D333" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="E333" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C334" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D334" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="E334" t="s" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C335" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D335" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="E335" t="s" s="2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C336" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D336" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E336" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D337" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E337" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C338" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D338" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="E338" t="s" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D339" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="E339" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C340" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D340" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E340" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C341" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D341" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="E341" t="s" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C342" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D342" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E342" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C343" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D343" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E343" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C344" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D344" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E344" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C345" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E345" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C346" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D346" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E346" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C347" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E347" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C348" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D348" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E348" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C349" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D349" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E349" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C350" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D350" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E350" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C351" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D351" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="E351" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ch-vacd-vaccines-sct-targetdiseases-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-sct-targetdiseases-cm.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -858,7 +858,7 @@
     <t>Borrelia burgdorferi antigen-containing vaccine product</t>
   </si>
   <si>
-    <t>15507005</t>
+    <t>715507005</t>
   </si>
   <si>
     <t>Infection of central nervous system caused by Borrelia burgdorferi (disorder)</t>
